--- a/Revised/figure3sf2.xlsx
+++ b/Revised/figure3sf2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="94">
   <si>
     <t>IndMill</t>
   </si>
@@ -295,6 +295,12 @@
   </si>
   <si>
     <t>Last commute multimodal</t>
+  </si>
+  <si>
+    <t>25/75</t>
+  </si>
+  <si>
+    <t>10/90</t>
   </si>
 </sst>
 </file>
@@ -789,7 +795,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -806,6 +812,7 @@
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -891,7 +898,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>figure3sf2!$Q$23</c:f>
+              <c:f>figure3sf2!$Q$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -912,7 +919,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>figure3sf2!$R$22:$AF$22</c:f>
+              <c:f>figure3sf2!$R$23:$AF$23</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -965,7 +972,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>figure3sf2!$R$23:$AF$23</c:f>
+              <c:f>figure3sf2!$R$24:$AF$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1028,7 +1035,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>figure3sf2!$Q$24</c:f>
+              <c:f>figure3sf2!$Q$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1049,7 +1056,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>figure3sf2!$R$22:$AF$22</c:f>
+              <c:f>figure3sf2!$R$23:$AF$23</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -1102,7 +1109,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>figure3sf2!$R$24:$AF$24</c:f>
+              <c:f>figure3sf2!$R$25:$AF$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1165,7 +1172,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>figure3sf2!$Q$25</c:f>
+              <c:f>figure3sf2!$Q$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1188,7 +1195,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>figure3sf2!$R$22:$AF$22</c:f>
+              <c:f>figure3sf2!$R$23:$AF$23</c:f>
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
@@ -1241,7 +1248,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>figure3sf2!$R$25:$AF$25</c:f>
+              <c:f>figure3sf2!$R$26:$AF$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1296,6 +1303,636 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E230-44A5-9CEE-41BFB1C5ADF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="598369080"/>
+        <c:axId val="598376296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="598369080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598376296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="598376296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598369080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="900">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>figure3sf2!$Q$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IndMill</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>figure3sf2!$AI$23:$AW$23</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Housing Unit/acre</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Residents/acre</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jobs/acre</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Walkscore</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bikescore</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Alltransit measure</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Commute monomodal driver</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Commute multimodal driver</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Commute multimodal non-driver</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Leisure monomodal driver</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Leisure multimodal driver</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Leisure multimodal non-driver</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Last commute mono car</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Last commute mono non-car</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Last commute multimodal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>figure3sf2!$AI$24:$AW$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>9.9990000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.937999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.568999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.954999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.596</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D02-49F7-82DA-1DD08AA2FC3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>figure3sf2!$Q$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DepMill</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>figure3sf2!$AI$23:$AW$23</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Housing Unit/acre</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Residents/acre</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jobs/acre</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Walkscore</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bikescore</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Alltransit measure</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Commute monomodal driver</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Commute multimodal driver</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Commute multimodal non-driver</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Leisure monomodal driver</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Leisure multimodal driver</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Leisure multimodal non-driver</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Last commute mono car</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Last commute mono non-car</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Last commute multimodal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>figure3sf2!$AI$25:$AW$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5.2519999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9929999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.507000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8D02-49F7-82DA-1DD08AA2FC3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>figure3sf2!$Q$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GenXer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>figure3sf2!$AI$23:$AW$23</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Housing Unit/acre</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Residents/acre</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jobs/acre</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Walkscore</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bikescore</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Alltransit measure</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Commute monomodal driver</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Commute multimodal driver</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Commute multimodal non-driver</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Leisure monomodal driver</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Leisure multimodal driver</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Leisure multimodal non-driver</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Last commute mono car</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Last commute mono non-car</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Last commute multimodal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>figure3sf2!$AI$26:$AW$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>7.8979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.506</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.395000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.905999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>74.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8D02-49F7-82DA-1DD08AA2FC3A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1535,6 +2172,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2038,19 +2715,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2065,6 +3245,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2336,10 +3548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF28"/>
+  <dimension ref="A1:AW29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3211,7 +4423,7 @@
         <v>6.9599999999999995E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -3231,7 +4443,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -3293,7 +4505,7 @@
         <v>0.74400999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -3355,7 +4567,7 @@
         <v>0.15329000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -3417,325 +4629,526 @@
         <v>0.1027</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="X21" s="2" t="s">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="B21" s="6"/>
+      <c r="F21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="R22" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="X22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AA21" s="2" t="s">
+      <c r="AA22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AD21" s="2" t="s">
+      <c r="AD22" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="AI22" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="R22" s="2" t="s">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="R23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="S23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="T22" s="2" t="s">
+      <c r="T23" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="U22" s="2" t="s">
+      <c r="U23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="V22" s="2" t="s">
+      <c r="V23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="W22" s="2" t="s">
+      <c r="W23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="X22" s="2" t="s">
+      <c r="X23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="Y22" s="2" t="s">
+      <c r="Y23" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="Z22" s="2" t="s">
+      <c r="Z23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AA22" s="2" t="s">
+      <c r="AA23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AB22" s="2" t="s">
+      <c r="AB23" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AC22" s="2" t="s">
+      <c r="AC23" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AD22" s="2" t="s">
+      <c r="AD23" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AE22" s="2" t="s">
+      <c r="AE23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AF22" s="2" t="s">
+      <c r="AF23" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="AI23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW23" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="Q23" s="2" t="s">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="Q24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="R23" s="2">
+      <c r="R24" s="2">
         <v>9.9990000000000006</v>
       </c>
-      <c r="S23" s="2">
+      <c r="S24" s="2">
         <v>22.937999999999999</v>
       </c>
-      <c r="T23" s="2">
+      <c r="T24" s="2">
         <v>16.568999999999999</v>
       </c>
-      <c r="U23" s="2">
+      <c r="U24" s="2">
         <v>62.954999999999998</v>
       </c>
-      <c r="V23" s="2">
+      <c r="V24" s="2">
         <v>31.596</v>
       </c>
-      <c r="W23" s="1">
+      <c r="W24" s="1">
         <v>70.28</v>
       </c>
-      <c r="X23" s="2">
-        <f t="shared" ref="X23:AF23" si="12">X26*100</f>
+      <c r="X24" s="2">
+        <f t="shared" ref="X24:AF24" si="12">X27*100</f>
         <v>52.851000000000006</v>
       </c>
-      <c r="Y23" s="2">
+      <c r="Y24" s="2">
         <f t="shared" si="12"/>
         <v>23.722999999999999</v>
       </c>
-      <c r="Z23" s="2">
+      <c r="Z24" s="2">
         <f t="shared" si="12"/>
         <v>23.425999999999998</v>
       </c>
-      <c r="AA23" s="2">
+      <c r="AA24" s="2">
         <f t="shared" si="12"/>
         <v>45.771999999999998</v>
       </c>
-      <c r="AB23" s="2">
+      <c r="AB24" s="2">
         <f t="shared" si="12"/>
         <v>39.521000000000001</v>
       </c>
-      <c r="AC23" s="2">
+      <c r="AC24" s="2">
         <f t="shared" si="12"/>
         <v>14.707000000000001</v>
       </c>
-      <c r="AD23" s="2">
+      <c r="AD24" s="2">
         <f t="shared" si="12"/>
         <v>55.368000000000009</v>
       </c>
-      <c r="AE23" s="2">
+      <c r="AE24" s="2">
         <f t="shared" si="12"/>
         <v>28.854000000000003</v>
       </c>
-      <c r="AF23" s="2">
+      <c r="AF24" s="2">
         <f t="shared" si="12"/>
         <v>15.778</v>
       </c>
+      <c r="AH24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="2">
+        <v>9.9990000000000006</v>
+      </c>
+      <c r="AJ24" s="2">
+        <v>22.937999999999999</v>
+      </c>
+      <c r="AK24" s="2">
+        <v>16.568999999999999</v>
+      </c>
+      <c r="AL24" s="2">
+        <v>62.954999999999998</v>
+      </c>
+      <c r="AM24" s="2">
+        <v>31.596</v>
+      </c>
+      <c r="AN24" s="2">
+        <v>70.28</v>
+      </c>
+      <c r="AO24" s="2">
+        <v>58.9</v>
+      </c>
+      <c r="AP24" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="AQ24" s="2">
+        <v>25.6</v>
+      </c>
+      <c r="AR24" s="2">
+        <v>61.6</v>
+      </c>
+      <c r="AS24" s="2">
+        <v>21.7</v>
+      </c>
+      <c r="AT24" s="2">
+        <v>16.7</v>
+      </c>
+      <c r="AU24" s="2">
+        <v>55.4</v>
+      </c>
+      <c r="AV24" s="2">
+        <v>28.9</v>
+      </c>
+      <c r="AW24" s="2">
+        <v>15.8</v>
+      </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="Q24" s="2" t="s">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="Q25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="R24" s="2">
+      <c r="R25" s="2">
         <v>5.2519999999999998</v>
       </c>
-      <c r="S24" s="2">
+      <c r="S25" s="2">
         <v>14.16</v>
       </c>
-      <c r="T24" s="2">
+      <c r="T25" s="2">
         <v>3.9929999999999999</v>
       </c>
-      <c r="U24" s="2">
+      <c r="U25" s="2">
         <v>51.49</v>
       </c>
-      <c r="V24" s="2">
+      <c r="V25" s="2">
         <v>19.507000000000001</v>
       </c>
-      <c r="W24" s="1">
+      <c r="W25" s="1">
         <v>64.36</v>
       </c>
-      <c r="X24" s="2">
-        <f t="shared" ref="X24:AF24" si="13">X27*100</f>
+      <c r="X25" s="2">
+        <f t="shared" ref="X25:AF25" si="13">X28*100</f>
         <v>58.460999999999999</v>
       </c>
-      <c r="Y24" s="2">
+      <c r="Y25" s="2">
         <f t="shared" si="13"/>
         <v>13.961000000000002</v>
       </c>
-      <c r="Z24" s="2">
+      <c r="Z25" s="2">
         <f t="shared" si="13"/>
         <v>27.577999999999996</v>
       </c>
-      <c r="AA24" s="2">
+      <c r="AA25" s="2">
         <f t="shared" si="13"/>
         <v>60.119</v>
       </c>
-      <c r="AB24" s="2">
+      <c r="AB25" s="2">
         <f t="shared" si="13"/>
         <v>31.341000000000001</v>
       </c>
-      <c r="AC24" s="2">
+      <c r="AC25" s="2">
         <f t="shared" si="13"/>
         <v>8.5399999999999991</v>
       </c>
-      <c r="AD24" s="2">
+      <c r="AD25" s="2">
         <f t="shared" si="13"/>
         <v>50.606000000000009</v>
       </c>
-      <c r="AE24" s="2">
+      <c r="AE25" s="2">
         <f t="shared" si="13"/>
         <v>29.543999999999997</v>
       </c>
-      <c r="AF24" s="2">
+      <c r="AF25" s="2">
         <f t="shared" si="13"/>
         <v>19.850000000000001</v>
       </c>
+      <c r="AH25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="2">
+        <v>5.2519999999999998</v>
+      </c>
+      <c r="AJ25" s="2">
+        <v>14.16</v>
+      </c>
+      <c r="AK25" s="2">
+        <v>3.9929999999999999</v>
+      </c>
+      <c r="AL25" s="2">
+        <v>51.49</v>
+      </c>
+      <c r="AM25" s="2">
+        <v>19.507000000000001</v>
+      </c>
+      <c r="AN25" s="2">
+        <v>64.36</v>
+      </c>
+      <c r="AO25" s="2">
+        <v>59.9</v>
+      </c>
+      <c r="AP25" s="2">
+        <v>10</v>
+      </c>
+      <c r="AQ25" s="2">
+        <v>30.1</v>
+      </c>
+      <c r="AR25" s="2">
+        <v>64.5</v>
+      </c>
+      <c r="AS25" s="2">
+        <v>25.4</v>
+      </c>
+      <c r="AT25" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="AU25" s="2">
+        <v>50.6</v>
+      </c>
+      <c r="AV25" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="AW25" s="2">
+        <v>19.899999999999999</v>
+      </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="Q25" s="2" t="s">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="Q26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="R25" s="2">
+      <c r="R26" s="2">
         <v>7.8979999999999997</v>
       </c>
-      <c r="S25" s="2">
+      <c r="S26" s="2">
         <v>18.506</v>
       </c>
-      <c r="T25" s="2">
+      <c r="T26" s="2">
         <v>7.1520000000000001</v>
       </c>
-      <c r="U25" s="2">
+      <c r="U26" s="2">
         <v>57.395000000000003</v>
       </c>
-      <c r="V25" s="2">
+      <c r="V26" s="2">
         <v>23.905999999999999</v>
       </c>
-      <c r="W25" s="1">
+      <c r="W26" s="1">
         <v>66.760000000000005</v>
       </c>
-      <c r="X25" s="2">
-        <f t="shared" ref="X25:AF25" si="14">X28*100</f>
+      <c r="X26" s="2">
+        <f t="shared" ref="X26:AF26" si="14">X29*100</f>
         <v>67.741</v>
       </c>
-      <c r="Y25" s="2">
+      <c r="Y26" s="2">
         <f t="shared" si="14"/>
         <v>18.256</v>
       </c>
-      <c r="Z25" s="2">
+      <c r="Z26" s="2">
         <f t="shared" si="14"/>
         <v>14.002999999999998</v>
       </c>
-      <c r="AA25" s="2">
+      <c r="AA26" s="2">
         <f t="shared" si="14"/>
         <v>62.122</v>
       </c>
-      <c r="AB25" s="2">
+      <c r="AB26" s="2">
         <f t="shared" si="14"/>
         <v>30.916</v>
       </c>
-      <c r="AC25" s="2">
+      <c r="AC26" s="2">
         <f t="shared" si="14"/>
         <v>6.9599999999999991</v>
       </c>
-      <c r="AD25" s="2">
+      <c r="AD26" s="2">
         <f t="shared" si="14"/>
         <v>74.400999999999996</v>
       </c>
-      <c r="AE25" s="2">
+      <c r="AE26" s="2">
         <f t="shared" si="14"/>
         <v>15.329000000000001</v>
       </c>
-      <c r="AF25" s="2">
+      <c r="AF26" s="2">
         <f t="shared" si="14"/>
         <v>10.27</v>
       </c>
+      <c r="AH26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI26" s="2">
+        <v>7.8979999999999997</v>
+      </c>
+      <c r="AJ26" s="2">
+        <v>18.506</v>
+      </c>
+      <c r="AK26" s="2">
+        <v>7.1520000000000001</v>
+      </c>
+      <c r="AL26" s="2">
+        <v>57.395000000000003</v>
+      </c>
+      <c r="AM26" s="2">
+        <v>23.905999999999999</v>
+      </c>
+      <c r="AN26" s="2">
+        <v>66.760000000000005</v>
+      </c>
+      <c r="AO26" s="2">
+        <v>75.2</v>
+      </c>
+      <c r="AP26" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AQ26" s="2">
+        <v>15.6</v>
+      </c>
+      <c r="AR26" s="2">
+        <v>68</v>
+      </c>
+      <c r="AS26" s="2">
+        <v>20.2</v>
+      </c>
+      <c r="AT26" s="2">
+        <v>11.7</v>
+      </c>
+      <c r="AU26" s="2">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="AV26" s="2">
+        <v>15.3</v>
+      </c>
+      <c r="AW26" s="2">
+        <v>10.3</v>
+      </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="X26" s="2">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="X27" s="2">
         <v>0.52851000000000004</v>
       </c>
-      <c r="Y26" s="2">
+      <c r="Y27" s="2">
         <v>0.23723</v>
       </c>
-      <c r="Z26" s="2">
+      <c r="Z27" s="2">
         <v>0.23426</v>
       </c>
-      <c r="AA26" s="2">
+      <c r="AA27" s="2">
         <v>0.45771999999999996</v>
       </c>
-      <c r="AB26" s="2">
+      <c r="AB27" s="2">
         <v>0.39521000000000001</v>
       </c>
-      <c r="AC26" s="2">
+      <c r="AC27" s="2">
         <v>0.14707000000000001</v>
       </c>
-      <c r="AD26" s="2">
+      <c r="AD27" s="2">
         <v>0.55368000000000006</v>
       </c>
-      <c r="AE26" s="2">
+      <c r="AE27" s="2">
         <v>0.28854000000000002</v>
       </c>
-      <c r="AF26" s="2">
+      <c r="AF27" s="2">
         <v>0.15778</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="X27" s="2">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="X28" s="2">
         <v>0.58460999999999996</v>
       </c>
-      <c r="Y27" s="2">
+      <c r="Y28" s="2">
         <v>0.13961000000000001</v>
       </c>
-      <c r="Z27" s="2">
+      <c r="Z28" s="2">
         <v>0.27577999999999997</v>
       </c>
-      <c r="AA27" s="2">
+      <c r="AA28" s="2">
         <v>0.60119</v>
       </c>
-      <c r="AB27" s="2">
+      <c r="AB28" s="2">
         <v>0.31341000000000002</v>
       </c>
-      <c r="AC27" s="2">
+      <c r="AC28" s="2">
         <v>8.539999999999999E-2</v>
       </c>
-      <c r="AD27" s="2">
+      <c r="AD28" s="2">
         <v>0.50606000000000007</v>
       </c>
-      <c r="AE27" s="2">
+      <c r="AE28" s="2">
         <v>0.29543999999999998</v>
       </c>
-      <c r="AF27" s="2">
+      <c r="AF28" s="2">
         <v>0.19850000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="X28" s="2">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="X29" s="2">
         <v>0.67740999999999996</v>
       </c>
-      <c r="Y28" s="2">
+      <c r="Y29" s="2">
         <v>0.18256</v>
       </c>
-      <c r="Z28" s="2">
+      <c r="Z29" s="2">
         <v>0.14002999999999999</v>
       </c>
-      <c r="AA28" s="2">
+      <c r="AA29" s="2">
         <v>0.62121999999999999</v>
       </c>
-      <c r="AB28" s="2">
+      <c r="AB29" s="2">
         <v>0.30915999999999999</v>
       </c>
-      <c r="AC28" s="2">
+      <c r="AC29" s="2">
         <v>6.9599999999999995E-2</v>
       </c>
-      <c r="AD28" s="2">
+      <c r="AD29" s="2">
         <v>0.74400999999999995</v>
       </c>
-      <c r="AE28" s="2">
+      <c r="AE29" s="2">
         <v>0.15329000000000001</v>
       </c>
-      <c r="AF28" s="2">
+      <c r="AF29" s="2">
         <v>0.1027</v>
       </c>
     </row>
